--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD6013-E197-8C4C-A358-DBFF4F82A56C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEF764-581D-8A4E-8C97-3548805F5273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43060" yWindow="1640" windowWidth="27640" windowHeight="16940" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SystemCheatSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Database architecture &amp; design </t>
   </si>
@@ -79,23 +80,6 @@
   </si>
   <si>
     <t>federation (split DB by use case users. Order etc, )</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <r>
-      <t>Basically available</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <t>SQL tuning</t>
@@ -313,13 +297,37 @@
   </si>
   <si>
     <t>PostressSQL</t>
+  </si>
+  <si>
+    <t>Basically available </t>
+  </si>
+  <si>
+    <t>BASE principle</t>
+  </si>
+  <si>
+    <t>RDBMS implementations:</t>
+  </si>
+  <si>
+    <t>NOSQL implementations:</t>
+  </si>
+  <si>
+    <t>Cluster replications</t>
+  </si>
+  <si>
+    <t>Store types:</t>
+  </si>
+  <si>
+    <t>desription:</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,46 +336,90 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color rgb="FF1D2228"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF24292E"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF6A737D"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF1D2228"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -375,19 +427,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,406 +913,533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C14" s="30"/>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="E21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="F26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
+      <c r="C43" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C53" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
+      <c r="C58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="19">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEF764-581D-8A4E-8C97-3548805F5273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03678681-A1CD-3D4A-82AA-07DB96F9BE45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
   </bookViews>
   <sheets>
-    <sheet name="SystemCheatSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="SystemDesignCheatSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="MicroserviceTemplate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="158">
   <si>
     <t>Database architecture &amp; design </t>
   </si>
@@ -227,9 +227,6 @@
     <t>Usually microservices require resilience patterns(Retry, fallback, timeout, and circuit breaker)</t>
   </si>
   <si>
-    <t>Spring Boot Admin(health monitor), Actuator,  Elastick search, Logstash, Kibana. Jresilience, Hystrix setup. Database health monitoring, SMS, Email notifications</t>
-  </si>
-  <si>
     <t>Monolith +</t>
   </si>
   <si>
@@ -321,6 +318,189 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>MicroserviceTemplate</t>
+  </si>
+  <si>
+    <t>Discovery client</t>
+  </si>
+  <si>
+    <t>Config server yml configuration</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>Configuration Properties,</t>
+  </si>
+  <si>
+    <t>Ribbon for Feign</t>
+  </si>
+  <si>
+    <t>Resilience4J/Hystrix for Feign</t>
+  </si>
+  <si>
+    <t>Client side load balancing and failower.</t>
+  </si>
+  <si>
+    <t>Circuit breaker.</t>
+  </si>
+  <si>
+    <t>Zipkin</t>
+  </si>
+  <si>
+    <t>Zipkin/Sleuth Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actuator Management end point </t>
+  </si>
+  <si>
+    <t>Spring Boot Admin Cloud Management Monitoring</t>
+  </si>
+  <si>
+    <t>Tracing Sampling</t>
+  </si>
+  <si>
+    <t>Resource Server Configuration</t>
+  </si>
+  <si>
+    <t>Token Based Security Authorization</t>
+  </si>
+  <si>
+    <t>Cloud pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gateway API </t>
+  </si>
+  <si>
+    <t>Auth Server</t>
+  </si>
+  <si>
+    <t>JWT Based authentification server.</t>
+  </si>
+  <si>
+    <t>Eureka Discovery</t>
+  </si>
+  <si>
+    <t>HAProxy</t>
+  </si>
+  <si>
+    <t>Cluster balancing TLS termination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS </t>
+  </si>
+  <si>
+    <t>Registry Server</t>
+  </si>
+  <si>
+    <t>Config Server</t>
+  </si>
+  <si>
+    <t>Centralized config storage GIT based</t>
+  </si>
+  <si>
+    <t>Spring Boot Admin Server</t>
+  </si>
+  <si>
+    <t>Logging configuration</t>
+  </si>
+  <si>
+    <t>Centralized logging based on ELK, monitoring, performance, analyses.</t>
+  </si>
+  <si>
+    <t>Cloud Management Monitoring Notifications</t>
+  </si>
+  <si>
+    <t>Functional router, Security gateway, Swagger API.</t>
+  </si>
+  <si>
+    <t>Sample SQL DB, Perfomance Metrics Throughtput/Latency.</t>
+  </si>
+  <si>
+    <t>ELK</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>Static resources server, images, videos, documents.</t>
+  </si>
+  <si>
+    <t>Geo routhing</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Data warehouse</t>
+  </si>
+  <si>
+    <t>Centralized logging ElastickLogstashKibana, Monitoring, Analyses.</t>
+  </si>
+  <si>
+    <t>Synchonious</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Feign</t>
+  </si>
+  <si>
+    <t>Asynchronious</t>
+  </si>
+  <si>
+    <t>Message Brokers</t>
+  </si>
+  <si>
+    <t>Spring Boot Admin(health monitor), Actuator,  Elastik search, Logstash, Kibana. Jresilience, Hystrix setup. Database health monitoring, SMS, Email notifications</t>
+  </si>
+  <si>
+    <t>HTTP Rest inteface.</t>
+  </si>
+  <si>
+    <t>Kafka Cluster: Topic/Partition/Replica, Easy to scale, Extremly fast byte protocol, complex on both producer and consumer, hard to bind with ACID principles.</t>
+  </si>
+  <si>
+    <t>ActiveMq Instance:  Fast enough, Hard to scale, No cluster(instance based), Easy to produce conume, Easy to bind with transaction ACID principles.</t>
+  </si>
+  <si>
+    <t>Websockets</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>WebFlux</t>
+  </si>
+  <si>
+    <t>WS Socket spring implemetation.</t>
+  </si>
+  <si>
+    <t>Relational databases with ACID principles.</t>
+  </si>
+  <si>
+    <t>Oracle, Mysql, Postgress.</t>
+  </si>
+  <si>
+    <t>Redis (Mem cash, User Info, Session Info, Lookup Info.) No Search</t>
+  </si>
+  <si>
+    <t>Mongo (Document collections) Heavy search through collection iteration.</t>
+  </si>
+  <si>
+    <t>Cassandra (Column family, big object ) Only First or Secondary index search</t>
+  </si>
+  <si>
+    <t>Sharding</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>There some clustering technics, not easy https://medium.com/@iamvishalkhare/horizontal-scaling-in-out-techniques-for-redis-cluster-dcd75c696c86</t>
   </si>
 </sst>
 </file>
@@ -509,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,79 +704,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -614,6 +801,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://miro.medium.com/max/473/1*rxTP-_STj-QRDt1X9fdVlA.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA3BAEA-C6D5-6643-BE0D-520838B5A5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18923000" y="520700"/>
+          <a:ext cx="6007100" cy="4749800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://o7planning.org/de/11721/images/15357090.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177FCBAA-1BC2-2F4B-A714-A902B1ED9B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14566900" y="6959600"/>
+          <a:ext cx="9779000" cy="5321300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://o7planning.org/de/11721/images/15357588.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E855D2F5-03AB-D84A-81CC-C68F30328AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14986000" y="12776200"/>
+          <a:ext cx="16548100" cy="8343900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
-  <dimension ref="A2:E58"/>
+  <dimension ref="A2:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,69 +1303,69 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>92</v>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>89</v>
+      <c r="C7" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -998,78 +1373,79 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="30"/>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="30"/>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="21" t="s">
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="30"/>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="7"/>
       <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="38"/>
       <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="38"/>
       <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
@@ -1077,51 +1453,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="43"/>
       <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="44"/>
       <c r="E20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1129,19 +1505,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="30"/>
+      <c r="B22" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="38"/>
       <c r="E22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1149,267 +1525,271 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>93</v>
+      <c r="C24" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="41"/>
-    </row>
-    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="41"/>
-    </row>
-    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -1425,21 +1805,404 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03678681-A1CD-3D4A-82AA-07DB96F9BE45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98CCEE-9D90-0048-8CD8-432A1BCB06AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="168">
   <si>
     <t>Database architecture &amp; design </t>
   </si>
@@ -320,9 +320,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>MicroserviceTemplate</t>
-  </si>
-  <si>
     <t>Discovery client</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Data warehouse</t>
   </si>
   <si>
-    <t>Centralized logging ElastickLogstashKibana, Monitoring, Analyses.</t>
-  </si>
-  <si>
     <t>Synchonious</t>
   </si>
   <si>
@@ -461,12 +455,6 @@
     <t>HTTP Rest inteface.</t>
   </si>
   <si>
-    <t>Kafka Cluster: Topic/Partition/Replica, Easy to scale, Extremly fast byte protocol, complex on both producer and consumer, hard to bind with ACID principles.</t>
-  </si>
-  <si>
-    <t>ActiveMq Instance:  Fast enough, Hard to scale, No cluster(instance based), Easy to produce conume, Easy to bind with transaction ACID principles.</t>
-  </si>
-  <si>
     <t>Websockets</t>
   </si>
   <si>
@@ -488,9 +476,6 @@
     <t>Redis (Mem cash, User Info, Session Info, Lookup Info.) No Search</t>
   </si>
   <si>
-    <t>Mongo (Document collections) Heavy search through collection iteration.</t>
-  </si>
-  <si>
     <t>Cassandra (Column family, big object ) Only First or Secondary index search</t>
   </si>
   <si>
@@ -500,14 +485,59 @@
     <t>Clustering</t>
   </si>
   <si>
-    <t>There some clustering technics, not easy https://medium.com/@iamvishalkhare/horizontal-scaling-in-out-techniques-for-redis-cluster-dcd75c696c86</t>
+    <t>Microservice Template</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Centralized logging Elastick search, Logstash, Kibana, Monitoring, Analyses.</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafka </t>
+  </si>
+  <si>
+    <t>Cluster: Topic/Partition/Replica, Easy to scale, Extremly fast byte protocol, complex on both producer and consumer, hard to bind with ACID principles.</t>
+  </si>
+  <si>
+    <t>ActiveMq</t>
+  </si>
+  <si>
+    <t>Instance:  Fast enough, Hard to scale, No cluster(instance based), Easy to produce conume, Easy to bind with transaction ACID principles.</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaling </t>
+  </si>
+  <si>
+    <t>Mongo (Document collections) Collection scan or Indexed search.</t>
+  </si>
+  <si>
+    <t>Implemetation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -584,6 +614,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -599,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -685,16 +746,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,14 +843,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -738,53 +865,208 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,13 +1089,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -868,16 +1150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,7 +1189,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14566900" y="6959600"/>
+          <a:off x="13373100" y="7264400"/>
           <a:ext cx="9779000" cy="5321300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -930,15 +1212,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,7 +1250,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14986000" y="12776200"/>
+          <a:off x="13373100" y="12687300"/>
           <a:ext cx="16548100" cy="8343900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1288,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
-  <dimension ref="A2:R58"/>
+  <dimension ref="A2:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,512 +1581,717 @@
     <col min="1" max="1" width="52.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="5.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="73" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="70" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="13" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="64" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="13" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="64" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="3" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="64" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="64" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="29" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="64" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="3" t="s">
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="69" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="64" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="E16" s="3" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="64" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+    </row>
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="64" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="64" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="16" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="64" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="16" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="64" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+    </row>
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="73" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+    </row>
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="64" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="3" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="91"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="92"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
+    </row>
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="92"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
+    </row>
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="D27" s="93"/>
+    </row>
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="R29"/>
-    </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="D28" s="94"/>
+    </row>
+    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="94"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B31" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="95"/>
+    </row>
+    <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B32" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="B33" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="96"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B34" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="23" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="95"/>
+    </row>
+    <row r="35" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58"/>
+      <c r="B35" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="96"/>
+    </row>
+    <row r="36" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="58"/>
+      <c r="B36" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="96"/>
+    </row>
+    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="58"/>
+      <c r="B37" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="96"/>
+    </row>
+    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B39" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C39" s="57" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="D39" s="97"/>
+    </row>
+    <row r="40" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C40" s="56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="D40" s="98"/>
+    </row>
+    <row r="41" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="B41" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C41" s="56" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="D41" s="98"/>
+    </row>
+    <row r="42" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
+      <c r="B42" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="98"/>
+    </row>
+    <row r="43" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="98"/>
+    </row>
+    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="98"/>
+    </row>
+    <row r="45" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C45" s="57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="D45" s="97"/>
+    </row>
+    <row r="46" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C46" s="56" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+      <c r="D46" s="98"/>
+    </row>
+    <row r="47" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C47" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="D47" s="98"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C48" s="56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="D48" s="98"/>
+    </row>
+    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C49" s="56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="D49" s="98"/>
+    </row>
+    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="C50" s="56"/>
+      <c r="D50" s="98"/>
+    </row>
+    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="C51" s="56"/>
+      <c r="D51" s="98"/>
+    </row>
+    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="98"/>
+    </row>
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B54" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B39:C39"/>
+  <mergeCells count="49">
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A39:A52"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1813,395 +2300,684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="51" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>154</v>
-      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="73">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98CCEE-9D90-0048-8CD8-432A1BCB06AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CF730-EAA3-474A-A922-AD7E5374AF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
   </bookViews>
@@ -242,9 +242,6 @@
     <t>Simple to develop/test/deploy/scale. If moderate size/complexity.</t>
   </si>
   <si>
-    <t>Surgical scalability.,</t>
-  </si>
-  <si>
     <t>Microservice -</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>Oracle, Mysql, Postgress.</t>
   </si>
   <si>
-    <t>Redis (Mem cash, User Info, Session Info, Lookup Info.) No Search</t>
-  </si>
-  <si>
     <t>Cassandra (Column family, big object ) Only First or Secondary index search</t>
   </si>
   <si>
@@ -531,6 +525,12 @@
   </si>
   <si>
     <t>Implemetation</t>
+  </si>
+  <si>
+    <t>Surgical scalability.</t>
+  </si>
+  <si>
+    <t>Redis (Mem cash, User Info, Session Info, Lookup Info.) No Search. Scaling is difficult but possible. https://medium.com/@iamvishalkhare/horizontal-scaling-in-out-techniques-for-redis-cluster-dcd75c696c86</t>
   </si>
 </sst>
 </file>
@@ -821,11 +821,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -850,9 +849,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -926,20 +922,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,6 +1051,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
   <dimension ref="A2:S54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1581,668 +1577,671 @@
     <col min="1" max="1" width="52.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="88"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+    </row>
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+    </row>
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-    </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-    </row>
-    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-    </row>
-    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="D24" s="85"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="87"/>
+    </row>
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-    </row>
-    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-    </row>
-    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="93"/>
-    </row>
-    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="94"/>
+      <c r="C28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="88"/>
     </row>
     <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="88"/>
     </row>
     <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="89"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="90"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="89"/>
     </row>
     <row r="35" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="90"/>
     </row>
     <row r="36" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="61" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="96"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="90"/>
     </row>
     <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="96"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="90"/>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="97"/>
+      <c r="D39" s="91"/>
     </row>
     <row r="40" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="98"/>
+      <c r="D40" s="92"/>
     </row>
     <row r="41" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="92"/>
+    </row>
+    <row r="42" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="92"/>
+    </row>
+    <row r="43" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="92"/>
+    </row>
+    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="92"/>
+    </row>
+    <row r="45" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="91"/>
+    </row>
+    <row r="46" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="92"/>
+    </row>
+    <row r="47" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="92"/>
+    </row>
+    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="92"/>
+    </row>
+    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="92"/>
+    </row>
+    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="92"/>
+    </row>
+    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="98"/>
-    </row>
-    <row r="42" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="98"/>
-    </row>
-    <row r="43" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="56" t="s">
+      <c r="C52" s="50"/>
+      <c r="D52" s="92"/>
+    </row>
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="98"/>
-    </row>
-    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="98"/>
-    </row>
-    <row r="45" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="97"/>
-    </row>
-    <row r="46" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="98"/>
-    </row>
-    <row r="47" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="98"/>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="98"/>
-    </row>
-    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="98"/>
-    </row>
-    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="98"/>
-    </row>
-    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="98"/>
-    </row>
-    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="98"/>
-    </row>
-    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="E21:J21"/>
@@ -2302,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2313,595 +2312,595 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="43" t="s">
+      <c r="F28" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="44" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F36" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37" t="s">
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-    </row>
-    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="73">

--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CF730-EAA3-474A-A922-AD7E5374AF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA79A9-CEDE-BD48-B17B-311B7C792DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
+    <workbookView xWindow="2160" yWindow="580" windowWidth="35840" windowHeight="19560" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesignCheatSheet" sheetId="1" r:id="rId1"/>
     <sheet name="MicroserviceTemplate" sheetId="2" r:id="rId2"/>
+    <sheet name="Principles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
   <si>
     <t>Database architecture &amp; design </t>
   </si>
@@ -287,9 +288,6 @@
     <t>Continuous deployment is easy.</t>
   </si>
   <si>
-    <t>Component, Unit, Mocks, Built in test tools.</t>
-  </si>
-  <si>
     <t>PostressSQL</t>
   </si>
   <si>
@@ -531,13 +529,145 @@
   </si>
   <si>
     <t>Redis (Mem cash, User Info, Session Info, Lookup Info.) No Search. Scaling is difficult but possible. https://medium.com/@iamvishalkhare/horizontal-scaling-in-out-techniques-for-redis-cluster-dcd75c696c86</t>
+  </si>
+  <si>
+    <t>Levels:</t>
+  </si>
+  <si>
+    <t>Testing provides</t>
+  </si>
+  <si>
+    <t>Development Safety.</t>
+  </si>
+  <si>
+    <t>Drives implementation.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Scope Class. Covers line/piece of code.</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Scope Component. Similar to unit testing Covers multiple classes and their relations mocking external system.</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>System as whole. Covers Bussiness cases.</t>
+  </si>
+  <si>
+    <t>Scope Process/Application. Testing single or integration of application using external toolset. Covers Application functionalitites and its integrations.</t>
+  </si>
+  <si>
+    <t>Early requirment clarification.</t>
+  </si>
+  <si>
+    <t>Simulation.</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> is used to hide unnecessary details in classes and deliver a simple and clear interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inheritance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>explains how the class hierarchies develop code readability and support to the reused functionality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Abstraction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> deals with objects, their important features and ignores all other details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polymorphism </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF150101"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>deals to work with a different object in a related manner.</t>
+    </r>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>End users verify their scenarios.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,6 +774,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF150101"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF150101"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -821,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,95 +986,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,80 +996,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -1052,18 +1036,201 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,8 +1382,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1248,6 +1415,72 @@
         <a:xfrm>
           <a:off x="13373100" y="12687300"/>
           <a:ext cx="16548100" cy="8343900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="The 5 SOLID principles for | Object oriented programming java ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9771F4CF-2AC6-0246-8BB4-89302B90B13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1511300"/>
+          <a:ext cx="7569200" cy="10693400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
-  <dimension ref="A2:S54"/>
+  <dimension ref="A2:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,369 +1816,369 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="64" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="58" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="58" t="s">
+      <c r="C7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="58" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="58" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="58" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="58" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="63" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="58" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="58" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="58" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="58" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>89</v>
+      <c r="A18" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="58" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="58" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="58" t="s">
+      <c r="C20" s="85"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="58" t="s">
+      <c r="B22" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="58" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="58" t="s">
+      <c r="C24" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -1954,18 +2187,18 @@
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="58" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -1974,18 +2207,18 @@
       <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="58" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -1997,25 +2230,25 @@
       <c r="C27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="88"/>
+        <v>94</v>
+      </c>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="88"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -2024,70 +2257,70 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="89"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="89"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="90"/>
+      <c r="B33" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="37"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="89"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="90"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -2096,151 +2329,269 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="91"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="92"/>
+      <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="92"/>
+      <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="92"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="92"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="92"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="39"/>
     </row>
     <row r="45" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="51" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="91"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="64"/>
+      <c r="B46" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="92"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="92"/>
+      <c r="D47" s="39"/>
       <c r="K47"/>
     </row>
     <row r="48" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="50" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="92"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="50" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="92"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="92"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
+    <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="3"/>
+      <c r="B54" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="95"/>
       <c r="D54" s="8"/>
     </row>
+    <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="105"/>
+      <c r="B55" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="35" x14ac:dyDescent="0.25">
+      <c r="A56" s="105"/>
+      <c r="B56" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="35" x14ac:dyDescent="0.25">
+      <c r="A57" s="105"/>
+      <c r="B57" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="108" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="105"/>
+      <c r="B58" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A59" s="105"/>
+      <c r="B59" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="105"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="105"/>
+      <c r="B61" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="105"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="105"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="106"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="111" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="54">
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F26:J26"/>
@@ -2257,40 +2608,6 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2301,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2312,342 +2629,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E24" s="18"/>
@@ -2655,306 +2972,255 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="90"/>
+      <c r="E30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="39" t="s">
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35" t="s">
+      <c r="F36" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="37" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="88"/>
+      <c r="E37" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+    </row>
+    <row r="39" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A19:D19"/>
@@ -2971,13 +3237,105 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18BD00E-415A-8F4A-A3C0-ED8FF8D333DD}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
+++ b/misc/src/main/resources/systemdesign/SystemDesignCheatSheet.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/systemdesign/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA79A9-CEDE-BD48-B17B-311B7C792DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="580" windowWidth="35840" windowHeight="19560" xr2:uid="{62866BA2-04DA-2641-9EBD-EF47019D4137}"/>
+    <workbookView xWindow="2160" yWindow="585" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesignCheatSheet" sheetId="1" r:id="rId1"/>
     <sheet name="MicroserviceTemplate" sheetId="2" r:id="rId2"/>
     <sheet name="Principles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" refMode="R1C1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="194">
   <si>
     <t>Database architecture &amp; design </t>
   </si>
@@ -662,12 +656,33 @@
   <si>
     <t>End users verify their scenarios.</t>
   </si>
+  <si>
+    <t>Most common patterns</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -787,6 +802,15 @@
       <color rgb="FF150101"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -964,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1039,8 +1063,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1051,6 +1188,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1062,9 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,95 +1212,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1171,69 +1254,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,7 +1300,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://miro.medium.com/max/473/1*rxTP-_STj-QRDt1X9fdVlA.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA3BAEA-C6D5-6643-BE0D-520838B5A5DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FA3BAEA-C6D5-6643-BE0D-520838B5A5DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,10 +1309,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1300,7 +1332,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1329,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="https://o7planning.org/de/11721/images/15357090.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177FCBAA-1BC2-2F4B-A714-A902B1ED9B19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{177FCBAA-1BC2-2F4B-A714-A902B1ED9B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,10 +1370,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1361,7 +1393,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1390,7 +1422,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://o7planning.org/de/11721/images/15357588.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E855D2F5-03AB-D84A-81CC-C68F30328AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E855D2F5-03AB-D84A-81CC-C68F30328AB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,10 +1431,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1422,7 +1454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1456,7 +1488,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="The 5 SOLID principles for | Object oriented programming java ...">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9771F4CF-2AC6-0246-8BB4-89302B90B13F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9771F4CF-2AC6-0246-8BB4-89302B90B13F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,10 +1497,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1488,7 +1520,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1545,7 +1577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1597,7 +1629,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1791,47 +1823,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396D0F-A29D-4549-A6CA-414560F56E87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="52.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:13" ht="20.25">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1841,17 +1873,17 @@
         <v>89</v>
       </c>
       <c r="D4" s="40"/>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A5" s="59"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1859,17 +1891,17 @@
         <v>57</v>
       </c>
       <c r="D5" s="41"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A6" s="59"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1877,17 +1909,17 @@
         <v>58</v>
       </c>
       <c r="D6" s="41"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A7" s="60"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1895,272 +1927,272 @@
         <v>86</v>
       </c>
       <c r="D7" s="41"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="78" t="s">
+    <row r="11" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="47" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
       <c r="A12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="42"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="71" t="s">
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:13" ht="18">
+      <c r="A14" s="67"/>
+      <c r="B14" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+    </row>
+    <row r="15" spans="1:13" ht="18">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+    </row>
+    <row r="17" spans="1:19" ht="18.75">
+      <c r="A17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="1:19" ht="18">
+      <c r="A18" s="72" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="79" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="47" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+    </row>
+    <row r="19" spans="1:19" ht="18.95" customHeight="1">
+      <c r="A19" s="73"/>
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-    </row>
-    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+    </row>
+    <row r="20" spans="1:19" ht="18.95" customHeight="1">
+      <c r="A20" s="74"/>
       <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="47" t="s">
+      <c r="E20" s="96"/>
+      <c r="F20" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+    </row>
+    <row r="21" spans="1:19" ht="18.75">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="42"/>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="1:19" ht="18.75">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+    </row>
+    <row r="23" spans="1:19" ht="18.75">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="47" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+    </row>
+    <row r="24" spans="1:19" ht="18.75">
       <c r="A24" s="14" t="s">
         <v>92</v>
       </c>
@@ -2171,16 +2203,16 @@
         <v>90</v>
       </c>
       <c r="D24" s="32"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="47" t="s">
+      <c r="E24" s="95"/>
+      <c r="F24" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+    </row>
+    <row r="25" spans="1:19" ht="18.75">
       <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
@@ -2191,16 +2223,16 @@
         <v>26</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="47" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+    </row>
+    <row r="26" spans="1:19" ht="18.75">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
@@ -2211,16 +2243,16 @@
         <v>29</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="47" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-    </row>
-    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+    </row>
+    <row r="27" spans="1:19" ht="18.75">
       <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +2264,7 @@
       </c>
       <c r="D27" s="34"/>
     </row>
-    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="18.75">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
@@ -2244,92 +2276,92 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="18.75">
       <c r="A29" s="28"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="18">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="20.25">
       <c r="A31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="27" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="36"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="42.95" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="37"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
+    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="36"/>
     </row>
-    <row r="35" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65" t="s">
+    <row r="35" spans="1:11" ht="69.95" customHeight="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="37"/>
     </row>
-    <row r="36" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65" t="s">
+    <row r="36" spans="1:11" ht="41.1" customHeight="1">
+      <c r="A36" s="75"/>
+      <c r="B36" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="37"/>
     </row>
-    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65" t="s">
+    <row r="37" spans="1:11" ht="18.75">
+      <c r="A37" s="75"/>
+      <c r="B37" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="37"/>
     </row>
-    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:11" ht="21" customHeight="1">
+      <c r="A39" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -2340,8 +2372,8 @@
       </c>
       <c r="D39" s="38"/>
     </row>
-    <row r="40" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+    <row r="40" spans="1:11" ht="18.75">
+      <c r="A40" s="75"/>
       <c r="B40" s="21" t="s">
         <v>68</v>
       </c>
@@ -2350,8 +2382,8 @@
       </c>
       <c r="D40" s="39"/>
     </row>
-    <row r="41" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+    <row r="41" spans="1:11" ht="18.75">
+      <c r="A41" s="75"/>
       <c r="B41" s="21" t="s">
         <v>69</v>
       </c>
@@ -2360,30 +2392,30 @@
       </c>
       <c r="D41" s="39"/>
     </row>
-    <row r="42" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+    <row r="42" spans="1:11" ht="18.75">
+      <c r="A42" s="75"/>
       <c r="B42" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="39"/>
     </row>
-    <row r="43" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+    <row r="43" spans="1:11" ht="18.75">
+      <c r="A43" s="75"/>
       <c r="B43" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="39"/>
     </row>
-    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+    <row r="44" spans="1:11" ht="18.75">
+      <c r="A44" s="75"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="39"/>
     </row>
-    <row r="45" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+    <row r="45" spans="1:11" ht="18.75">
+      <c r="A45" s="75"/>
       <c r="B45" s="22" t="s">
         <v>71</v>
       </c>
@@ -2392,8 +2424,8 @@
       </c>
       <c r="D45" s="38"/>
     </row>
-    <row r="46" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+    <row r="46" spans="1:11" ht="18.75">
+      <c r="A46" s="75"/>
       <c r="B46" s="21" t="s">
         <v>72</v>
       </c>
@@ -2402,8 +2434,8 @@
       </c>
       <c r="D46" s="39"/>
     </row>
-    <row r="47" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+    <row r="47" spans="1:11" ht="37.5">
+      <c r="A47" s="75"/>
       <c r="B47" s="21" t="s">
         <v>73</v>
       </c>
@@ -2413,8 +2445,8 @@
       <c r="D47" s="39"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+    <row r="48" spans="1:11" ht="18.75">
+      <c r="A48" s="75"/>
       <c r="B48" s="21" t="s">
         <v>74</v>
       </c>
@@ -2423,8 +2455,8 @@
       </c>
       <c r="D48" s="39"/>
     </row>
-    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+    <row r="49" spans="1:4" ht="18.75">
+      <c r="A49" s="75"/>
       <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
@@ -2433,127 +2465,165 @@
       </c>
       <c r="D49" s="39"/>
     </row>
-    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+    <row r="50" spans="1:4" ht="18.75">
+      <c r="A50" s="75"/>
       <c r="B50" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="39"/>
     </row>
-    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+    <row r="51" spans="1:4" ht="18.75">
+      <c r="A51" s="75"/>
       <c r="B51" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="39"/>
     </row>
-    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+    <row r="52" spans="1:4" ht="18.75">
+      <c r="A52" s="75"/>
       <c r="B52" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="39"/>
     </row>
-    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18.75">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="104" t="s">
+    <row r="54" spans="1:4" ht="21" customHeight="1">
+      <c r="A54" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="95"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
-      <c r="B55" s="107" t="s">
+    <row r="55" spans="1:4" ht="18.75">
+      <c r="A55" s="51"/>
+      <c r="B55" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="103" t="s">
+      <c r="C55" s="46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="35" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
-      <c r="B56" s="107" t="s">
+    <row r="56" spans="1:4" ht="32.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="108" t="s">
+      <c r="C56" s="48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="35" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
-      <c r="B57" s="107" t="s">
+    <row r="57" spans="1:4" ht="32.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="108" t="s">
+      <c r="C57" s="48" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A58" s="105"/>
-      <c r="B58" s="107" t="s">
+    <row r="58" spans="1:4" ht="18.75">
+      <c r="A58" s="51"/>
+      <c r="B58" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="103" t="s">
+      <c r="C58" s="46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A59" s="105"/>
-      <c r="B59" s="107" t="s">
+    <row r="59" spans="1:4" ht="18.75">
+      <c r="A59" s="51"/>
+      <c r="B59" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="103" t="s">
+      <c r="C59" s="46" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="105"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="105"/>
-      <c r="B61" s="109" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="51"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+    </row>
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="51"/>
+      <c r="B61" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="103" t="s">
+      <c r="C61" s="46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="105"/>
-      <c r="B62" s="110"/>
-      <c r="C62" s="103" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="51"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="105"/>
-      <c r="B63" s="110"/>
-      <c r="C63" s="103" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="51"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="106"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="111" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="49" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A54:A64"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B61:B64"/>
@@ -2570,44 +2640,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2615,612 +2647,669 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4343913-5B90-2D4B-BFC8-90ABE70DB230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:10" ht="23.25">
+      <c r="A1" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.25">
+      <c r="A12" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="87" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="87" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="87" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="87" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="87" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="87" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="87" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="87" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="s">
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="87" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="90" t="s">
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="87" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+    <row r="25" spans="1:10" ht="23.25">
+      <c r="A25" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="93"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="90"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-    </row>
-    <row r="28" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+    </row>
+    <row r="28" spans="1:10" ht="53.1" customHeight="1">
+      <c r="A28" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="97" t="s">
+      <c r="F28" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-    </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1">
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="96" t="s">
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="90" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="90"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="F30" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="94" t="s">
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+    </row>
+    <row r="32" spans="1:10" ht="23.25">
+      <c r="A32" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-    </row>
-    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="95" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75">
+      <c r="A33" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="90" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="s">
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+    </row>
+    <row r="35" spans="1:10" ht="21">
+      <c r="A35" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93" t="s">
+      <c r="B36" s="108"/>
+      <c r="C36" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87" t="s">
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:10" ht="69.95" customHeight="1">
+      <c r="A37" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="89" t="s">
+      <c r="F37" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="87" t="s">
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+    </row>
+    <row r="38" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A38" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="89" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="89" t="s">
+      <c r="F38" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-    </row>
-    <row r="39" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="87" t="s">
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+    </row>
+    <row r="39" spans="1:10" ht="33.950000000000003" customHeight="1">
+      <c r="A39" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A19:D19"/>
@@ -3237,105 +3326,121 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18BD00E-415A-8F4A-A3C0-ED8FF8D333DD}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="L1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="111" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="L2" s="113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="112" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="L3" s="113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="112" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="L4" s="113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="112" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="L5" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="112" t="s">
         <v>184</v>
       </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="L6" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="L7" s="113" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>